--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -930,7 +930,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1055,7 +1055,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1177,7 +1177,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1253,7 +1253,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1341,7 +1341,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1374,7 +1374,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1386,7 +1386,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1414,7 +1414,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1494,7 +1494,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1577,7 +1577,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1614,7 +1614,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1833,7 +1833,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2183,7 +2183,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2198,7 +2198,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -3784,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>216</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>248</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>284</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>323</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>350</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>380</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>390</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>518</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>521</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>524</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>527</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>530</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>533</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>536</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>539</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>547</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>557</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>563</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>571</v>
       </c>
@@ -12242,12 +12242,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP83">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-vital-signs-panel.xlsx
+++ b/docs/StructureDefinition-vital-signs-panel.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
